--- a/m52_PnP/Rev3.0B documents/BOM-speeduino compatible PCB for m52 rev3.0B (Not JLC assembled).xlsx
+++ b/m52_PnP/Rev3.0B documents/BOM-speeduino compatible PCB for m52 rev3.0B (Not JLC assembled).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m52 PnP\Rev3.0 documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m52_PnP\Rev3.0B documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC74C74-DBAD-443D-AE0D-DE45747D3318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A8A21A-43A5-410A-AC9D-107622C0CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1455" windowWidth="28770" windowHeight="15570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="2490" windowWidth="31590" windowHeight="16860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>Value</t>
   </si>
@@ -185,15 +185,6 @@
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>MPX4250AP-ND</t>
-  </si>
-  <si>
-    <t>SENSOR ABS PRESS 36.3 PSI MAX</t>
-  </si>
-  <si>
-    <t>MPX4250A</t>
-  </si>
-  <si>
     <t>Male pins</t>
   </si>
   <si>
@@ -242,12 +233,6 @@
     <t>Mouser Price (USD)</t>
   </si>
   <si>
-    <t>MPX4250AP</t>
-  </si>
-  <si>
-    <t>841-MPX4250AP</t>
-  </si>
-  <si>
     <t>667-ERZ-V14D220</t>
   </si>
   <si>
@@ -279,9 +264,6 @@
   </si>
   <si>
     <t>571-41037410</t>
-  </si>
-  <si>
-    <t>2.5-Bar MAP sensor</t>
   </si>
   <si>
     <t>Q11,Q12,Q13,Q14,Q15,Q16</t>
@@ -451,9 +433,6 @@
     <t>WM13070CT-ND</t>
   </si>
   <si>
-    <t>6-SOP</t>
-  </si>
-  <si>
     <t>SSOP-8</t>
   </si>
   <si>
@@ -494,6 +473,21 @@
   </si>
   <si>
     <t>Q1,Q2,Q3,Q4,Q5,Q6,Q8,Q9</t>
+  </si>
+  <si>
+    <t>MPXH6400AC6U</t>
+  </si>
+  <si>
+    <t>4-Bar MAP sensor</t>
+  </si>
+  <si>
+    <t>SENSOR ABS PRESS 58 PSI MAX</t>
+  </si>
+  <si>
+    <t>841-MPXH6400AC6U</t>
+  </si>
+  <si>
+    <t>MPXH6400AC6U-ND</t>
   </si>
 </sst>
 </file>
@@ -619,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -666,6 +660,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -724,7 +759,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -766,7 +801,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -787,11 +822,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="54" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1192,7 +1239,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1213,10 +1260,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" thickBot="1">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1228,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1240,31 +1287,31 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1">
@@ -1297,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1319,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K3" s="5">
         <v>0.72</v>
@@ -1328,11 +1375,11 @@
         <v>0.72</v>
       </c>
       <c r="M3" s="6">
-        <f>K3*A3</f>
+        <f t="shared" ref="M3:M11" si="1">K3*A3</f>
         <v>0.72</v>
       </c>
       <c r="N3" s="6">
-        <f>L3*A3</f>
+        <f t="shared" ref="N3:N11" si="2">L3*A3</f>
         <v>0.72</v>
       </c>
       <c r="O3" s="4"/>
@@ -1341,15 +1388,15 @@
         <v>1,P7307-ND</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q8" si="1">A3&amp;"x "&amp;C3</f>
+        <f t="shared" ref="Q3:Q8" si="3">A3&amp;"x "&amp;C3</f>
         <v>1x Surge Protection</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R8" si="2">IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
+        <f t="shared" ref="R3:R8" si="4">IF(NOT(J3=""),J3&amp;"|"&amp;A3,"")</f>
         <v>667-ERZ-V14D220|1</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S8" si="3">H3&amp;" "&amp;A3</f>
+        <f t="shared" ref="S3:S8" si="5">H3&amp;" "&amp;A3</f>
         <v>ERZ-V14D220 1</v>
       </c>
     </row>
@@ -1358,27 +1405,27 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K4" s="6">
         <v>0.56000000000000005</v>
@@ -1387,30 +1434,30 @@
         <v>2.95</v>
       </c>
       <c r="M4" s="6">
-        <f>K4*A4</f>
+        <f t="shared" si="1"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="N4" s="6">
-        <f>L4*A4</f>
+        <f t="shared" si="2"/>
         <v>11.8</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4,S1012EC-40-ND</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4x 40 POS 0.100 Pin Header</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>571-41037410|4</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>PREC040SAAN-RC.. 4</v>
       </c>
     </row>
@@ -1419,27 +1466,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
@@ -1448,11 +1495,11 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="M5" s="6">
-        <f>K5*A5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N5" s="6">
-        <f>L5*A5</f>
+        <f t="shared" si="2"/>
         <v>0.88200000000000001</v>
       </c>
       <c r="O5" s="4"/>
@@ -1461,15 +1508,15 @@
         <v>1,WM4724-ND</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1x 16 POS Header</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>538-43045-1600|1</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43045-1600 1</v>
       </c>
     </row>
@@ -1478,27 +1525,27 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K6" s="6">
         <v>0.38</v>
@@ -1507,11 +1554,11 @@
         <v>0.76</v>
       </c>
       <c r="M6" s="6">
-        <f>K6*A6</f>
+        <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
       <c r="N6" s="6">
-        <f>L6*A6</f>
+        <f t="shared" si="2"/>
         <v>0.76</v>
       </c>
       <c r="O6" s="4"/>
@@ -1520,15 +1567,15 @@
         <v>1,SAM1213-04-ND</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1x 4 POS Header</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>200-SSW10401TS|1</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>SSW-104-01-T-S 1</v>
       </c>
     </row>
@@ -1538,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
@@ -1554,13 +1601,13 @@
         <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K7" s="6">
         <v>1.51</v>
@@ -1569,11 +1616,11 @@
         <v>1.51</v>
       </c>
       <c r="M7" s="6">
-        <f>K7*A7</f>
+        <f t="shared" si="1"/>
         <v>12.08</v>
       </c>
       <c r="N7" s="6">
-        <f>L7*A7</f>
+        <f t="shared" si="2"/>
         <v>12.08</v>
       </c>
       <c r="O7" s="4"/>
@@ -1582,15 +1629,15 @@
         <v>8,497-5981-5-ND</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8x 62A MOSFET N-CH</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>511-STP62NS04Z|8</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>STP75NS04Z 8</v>
       </c>
     </row>
@@ -1600,29 +1647,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K8" s="6">
         <v>2.62</v>
@@ -1631,11 +1678,11 @@
         <v>2.9</v>
       </c>
       <c r="M8" s="6">
-        <f>K8*A8</f>
+        <f t="shared" si="1"/>
         <v>15.72</v>
       </c>
       <c r="N8" s="6">
-        <f>L8*A8</f>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="O8" s="4"/>
@@ -1644,22 +1691,22 @@
         <v>6,ISL9V5036P3-F085-ND</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6x Ignition IGBT</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>512-ISL9V5036P3-F085
 |6</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ISL9V5036P3-F085 6</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="26.25" thickBot="1">
       <c r="A9" s="14">
-        <f t="shared" ref="A9:A11" si="4">LEN(B9)-LEN(SUBSTITUTE(B9,",",""))+1</f>
+        <f t="shared" ref="A9:A11" si="6">LEN(B9)-LEN(SUBSTITUTE(B9,",",""))+1</f>
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1685,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5">
         <v>1.68</v>
@@ -1694,16 +1741,16 @@
         <v>1.67</v>
       </c>
       <c r="M9" s="6">
-        <f>K9*A9</f>
+        <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
       <c r="N9" s="6">
-        <f>L9*A9</f>
+        <f t="shared" si="2"/>
         <v>1.67</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="str">
-        <f t="shared" ref="P9" si="5">IF(NOT(I9=""),A9&amp;","&amp;I9,"")</f>
+        <f t="shared" ref="P9" si="7">IF(NOT(I9=""),A9&amp;","&amp;I9,"")</f>
         <v>1,LM2940T-5.0/NOPB</v>
       </c>
       <c r="Q9" t="str">
@@ -1711,43 +1758,43 @@
         <v>1x LM2940T-5.0/NOPB</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" ref="R9" si="6">IF(NOT(J9=""),J9&amp;"|"&amp;A9,"")</f>
+        <f t="shared" ref="R9" si="8">IF(NOT(J9=""),J9&amp;"|"&amp;A9,"")</f>
         <v>926-LM2940T-5.0/NOPB|1</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" ref="S9" si="7">H9&amp;" "&amp;A9</f>
+        <f t="shared" ref="S9" si="9">H9&amp;" "&amp;A9</f>
         <v>LM2940T-5.0/NOPB 1</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="26.25" thickBot="1">
       <c r="A10" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K10" s="6">
         <v>12.79</v>
@@ -1756,16 +1803,16 @@
         <v>19.739999999999998</v>
       </c>
       <c r="M10" s="6">
-        <f>K10*A10</f>
+        <f t="shared" si="1"/>
         <v>12.79</v>
       </c>
       <c r="N10" s="6">
-        <f>L10*A10</f>
+        <f t="shared" si="2"/>
         <v>19.739999999999998</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="str">
-        <f t="shared" ref="P10:P14" si="8">IF(NOT(I10=""),A10&amp;","&amp;I10,"")</f>
+        <f t="shared" ref="P10:P14" si="10">IF(NOT(I10=""),A10&amp;","&amp;I10,"")</f>
         <v>1,MPXH6115A6U-ND</v>
       </c>
       <c r="Q10" t="str">
@@ -1773,7 +1820,7 @@
         <v>1x Baro sensor</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" ref="R10:R14" si="9">IF(NOT(J10=""),J10&amp;"|"&amp;A10,"")</f>
+        <f t="shared" ref="R10:R14" si="11">IF(NOT(J10=""),J10&amp;"|"&amp;A10,"")</f>
         <v>841-MPXH6115A6U|1</v>
       </c>
       <c r="S10" t="str">
@@ -1783,33 +1830,33 @@
     </row>
     <row r="11" spans="1:19" ht="26.25" thickBot="1">
       <c r="A11" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>41</v>
+      <c r="H11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="K11" s="6">
         <v>15.41</v>
@@ -1818,29 +1865,29 @@
         <v>15.37</v>
       </c>
       <c r="M11" s="6">
-        <f>K11*A11</f>
+        <f t="shared" si="1"/>
         <v>15.41</v>
       </c>
       <c r="N11" s="6">
-        <f>L11*A11</f>
+        <f t="shared" si="2"/>
         <v>15.37</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>1,MPX4250AP-ND</v>
+        <f t="shared" si="10"/>
+        <v>1,MPXH6400AC6U-ND</v>
       </c>
       <c r="Q11" t="str">
         <f>A11&amp;"x "&amp;C11</f>
-        <v>1x 2.5-Bar MAP sensor</v>
+        <v>1x 4-Bar MAP sensor</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="9"/>
-        <v>841-MPX4250AP|1</v>
+        <f t="shared" si="11"/>
+        <v>841-MPXH6400AC6U|1</v>
       </c>
       <c r="S11" t="str">
         <f>H11&amp;" "&amp;A11</f>
-        <v>MPX4250AP 1</v>
+        <v>MPXH6400AC6U 1</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickBot="1">
@@ -1852,7 +1899,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1860,18 +1907,18 @@
       <c r="N12" s="6"/>
       <c r="O12" s="8"/>
       <c r="P12" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickBot="1">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1887,11 +1934,11 @@
       <c r="N13" s="6"/>
       <c r="O13" s="8"/>
       <c r="P13" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -1900,27 +1947,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K14" s="6">
         <v>0.55000000000000004</v>
@@ -1938,7 +1985,7 @@
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13,53-77-9ACG-ND</v>
       </c>
       <c r="Q14" t="str">
@@ -1946,7 +1993,7 @@
         <v>13x Thermal pad</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>532-53-77-9ACG|13</v>
       </c>
       <c r="S14" t="str">
@@ -1959,27 +2006,27 @@
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K15" s="6">
         <v>0.33</v>
@@ -2018,27 +2065,27 @@
         <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K16" s="6">
         <v>0.16</v>
@@ -2093,7 +2140,7 @@
     <row r="18" spans="1:19" ht="16.5" thickBot="1">
       <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2109,10 +2156,10 @@
       <c r="N18" s="6"/>
       <c r="O18" s="8"/>
       <c r="P18" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
@@ -2120,18 +2167,18 @@
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -2148,27 +2195,27 @@
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
@@ -2186,36 +2233,35 @@
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4" t="str">
-        <f t="shared" ref="P20" si="10">IF(NOT(I20=""),A20&amp;","&amp;I20,"")</f>
+        <f t="shared" ref="P20" si="12">IF(NOT(I20=""),A20&amp;","&amp;I20,"")</f>
         <v>1,WM1353-ND</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ref="Q20" si="11">A20&amp;"x "&amp;C20</f>
+        <f t="shared" ref="Q20" si="13">A20&amp;"x "&amp;C20</f>
         <v>1x 6 POS Header</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" ref="R20" si="12">IF(NOT(J20=""),J20&amp;"|"&amp;A20,"")</f>
+        <f t="shared" ref="R20" si="14">IF(NOT(J20=""),J20&amp;"|"&amp;A20,"")</f>
         <v>538-39-30-1060|1</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" ref="S20" si="13">H20&amp;" "&amp;A20</f>
+        <f t="shared" ref="S20" si="15">H20&amp;" "&amp;A20</f>
         <v>39-30-1060 1</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="B22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D19" r:id="rId3" xr:uid="{92C2AFA5-B4B0-4316-A270-A10AE65A780F}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{92C2AFA5-B4B0-4316-A270-A10AE65A780F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="21" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="21" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>